--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>809033.054839456</v>
+        <v>835732.1775350317</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7128448.701475536</v>
+        <v>7602841.820114833</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3476108.83786422</v>
+        <v>4325347.66927317</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10639088.44197428</v>
+        <v>10273848.80191212</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>89.65996150537421</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>209.221583501904</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>9.461970681989216</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964033</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>91.72166227029885</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>350.932385948997</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>22.11041309544157</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>243.0987870979042</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>55.6685229375947</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>94.63926978364054</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>176.7166301627352</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>285.7831261718113</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I11" t="n">
-        <v>61.44749355031655</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>120.9327970537822</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>337.3370085579819</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.275240877313</v>
       </c>
       <c r="H12" t="n">
-        <v>92.26024958059013</v>
+        <v>92.26024958059011</v>
       </c>
       <c r="I12" t="n">
-        <v>18.18624318344743</v>
+        <v>18.18624318344742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.5257533973965</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>91.88545528527307</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>96.8208469765908</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>85.42752523504753</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.0364052149085</v>
@@ -1706,7 +1706,7 @@
         <v>92.26024958059011</v>
       </c>
       <c r="I15" t="n">
-        <v>18.18624318344743</v>
+        <v>18.18624318344742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2570059982656</v>
+        <v>25.43246562044708</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>99.32764374521085</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T16" t="n">
         <v>220.5367941620016</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>66.81645986072307</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>206.854941014787</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>92.26024958059011</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.18624318344742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>166.5711559921988</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V19" t="n">
-        <v>188.1798517300313</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>334.519660290217</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881769</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>92.26024958059011</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.18624318344742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>154.626861758298</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>152.6049647870757</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>82.47617105277233</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>61.60385878691238</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>80.71606764504763</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2845,13 +2845,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>163.4723387335433</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>145.621575556955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>42.01201317445332</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>94.13369114058001</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>43.51301346010043</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>134.1156516430225</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>2.451579104186558</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3678,10 +3678,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>63.72703424640825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>95.36240073361444</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>134.3501500932817</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4033,7 +4033,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>1.487860919362006</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4188,22 +4188,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9089951863483</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1584.923258067584</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="C2" t="n">
-        <v>1215.960741127172</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="D2" t="n">
-        <v>857.6950425204218</v>
+        <v>1359.246564992226</v>
       </c>
       <c r="E2" t="n">
-        <v>471.9067899221776</v>
+        <v>973.4583123939813</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>562.4724076043738</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>144.5085995025606</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1958.389016328664</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.389016328664</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.923258067584</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y2" t="n">
-        <v>1584.923258067584</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,40 +4412,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4512,16 +4512,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
         <v>53.94298182036445</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>882.8926947117852</v>
+        <v>1226.657559460833</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
@@ -4567,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2604.50094731085</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2385.866280282913</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2385.866280282913</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2385.866280282913</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2033.097625012799</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X5" t="n">
-        <v>1659.631866751719</v>
+        <v>1616.796891436645</v>
       </c>
       <c r="Y5" t="n">
-        <v>1269.492534775907</v>
+        <v>1226.657559460833</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4731,37 +4731,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587812</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
         <v>53.94298182036445</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1739.708500331692</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="C8" t="n">
-        <v>1370.74598339128</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D8" t="n">
-        <v>1012.480284784529</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>626.6920321862851</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,7 +4822,7 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331692</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.708500331692</v>
+        <v>1937.315630222944</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4886,46 +4886,46 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.5382038240418</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="W10" t="n">
-        <v>149.5382038240418</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="X10" t="n">
-        <v>149.5382038240418</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="Y10" t="n">
-        <v>149.5382038240418</v>
+        <v>549.6273375774088</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1517.697449685092</v>
+        <v>715.1241000491148</v>
       </c>
       <c r="C11" t="n">
-        <v>1148.73493274468</v>
+        <v>715.1241000491148</v>
       </c>
       <c r="D11" t="n">
-        <v>790.4692341379298</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="E11" t="n">
-        <v>404.6809815396855</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="F11" t="n">
-        <v>116.0111571237145</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="G11" t="n">
-        <v>116.0111571237145</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="H11" t="n">
-        <v>116.0111571237145</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>199.5143021373487</v>
+        <v>199.5143021373488</v>
       </c>
       <c r="K11" t="n">
         <v>468.4264940665503</v>
       </c>
       <c r="L11" t="n">
-        <v>838.9376088552594</v>
+        <v>838.9376088552597</v>
       </c>
       <c r="M11" t="n">
         <v>1282.872051350724</v>
       </c>
       <c r="N11" t="n">
-        <v>1738.603625623768</v>
+        <v>1738.603625623769</v>
       </c>
       <c r="O11" t="n">
-        <v>2155.602766936376</v>
+        <v>2155.602766936377</v>
       </c>
       <c r="P11" t="n">
-        <v>2477.000885571628</v>
+        <v>2477.000885571629</v>
       </c>
       <c r="Q11" t="n">
-        <v>2670.18474111696</v>
+        <v>2670.184741116961</v>
       </c>
       <c r="R11" t="n">
         <v>2697.149091018222</v>
@@ -5071,22 +5071,22 @@
         <v>2574.994750559857</v>
       </c>
       <c r="T11" t="n">
-        <v>2574.994750559857</v>
+        <v>2366.737980492456</v>
       </c>
       <c r="U11" t="n">
-        <v>2574.994750559857</v>
+        <v>2113.16585401275</v>
       </c>
       <c r="V11" t="n">
-        <v>2243.931863216286</v>
+        <v>1782.102966669179</v>
       </c>
       <c r="W11" t="n">
-        <v>1891.163207946172</v>
+        <v>1429.334311399065</v>
       </c>
       <c r="X11" t="n">
-        <v>1517.697449685092</v>
+        <v>1055.868553137985</v>
       </c>
       <c r="Y11" t="n">
-        <v>1517.697449685092</v>
+        <v>715.1241000491148</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>448.681311148379</v>
       </c>
       <c r="F12" t="n">
-        <v>302.146753175264</v>
+        <v>302.1467531752639</v>
       </c>
       <c r="G12" t="n">
         <v>165.5050957234327</v>
       </c>
       <c r="H12" t="n">
-        <v>72.31292442990731</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>230.0695894691053</v>
+        <v>121.8264159807866</v>
       </c>
       <c r="K12" t="n">
-        <v>424.2480154885038</v>
+        <v>577.825426642638</v>
       </c>
       <c r="L12" t="n">
-        <v>731.6674135328756</v>
+        <v>885.2448246870099</v>
       </c>
       <c r="M12" t="n">
-        <v>1109.768219186677</v>
+        <v>1263.345630340811</v>
       </c>
       <c r="N12" t="n">
-        <v>1512.284873007821</v>
+        <v>1665.862284161955</v>
       </c>
       <c r="O12" t="n">
-        <v>2179.829273034831</v>
+        <v>2011.866589198268</v>
       </c>
       <c r="P12" t="n">
-        <v>2438.195165861565</v>
+        <v>2270.232482025003</v>
       </c>
       <c r="Q12" t="n">
         <v>2560.986726597623</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>517.6822058285749</v>
+        <v>633.7457650530704</v>
       </c>
       <c r="C13" t="n">
-        <v>348.7460229006679</v>
+        <v>464.8095821251635</v>
       </c>
       <c r="D13" t="n">
-        <v>348.7460229006679</v>
+        <v>314.6929427128277</v>
       </c>
       <c r="E13" t="n">
-        <v>200.8329293182748</v>
+        <v>314.6929427128277</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>314.6929427128277</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>146.75657301761</v>
       </c>
       <c r="H13" t="n">
         <v>53.94298182036445</v>
@@ -5199,16 +5199,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>82.8833909048594</v>
+        <v>82.88339090485943</v>
       </c>
       <c r="K13" t="n">
-        <v>260.2782098866545</v>
+        <v>260.2782098866546</v>
       </c>
       <c r="L13" t="n">
-        <v>542.8089378877603</v>
+        <v>542.8089378877605</v>
       </c>
       <c r="M13" t="n">
-        <v>851.0870999282808</v>
+        <v>851.0870999282812</v>
       </c>
       <c r="N13" t="n">
         <v>1157.469712732903</v>
@@ -5220,31 +5220,31 @@
         <v>1629.372157534689</v>
       </c>
       <c r="Q13" t="n">
-        <v>1687.816392302165</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="R13" t="n">
-        <v>1687.816392302165</v>
+        <v>1587.485439024175</v>
       </c>
       <c r="S13" t="n">
-        <v>1687.816392302165</v>
+        <v>1587.485439024175</v>
       </c>
       <c r="T13" t="n">
-        <v>1465.051953754689</v>
+        <v>1587.485439024175</v>
       </c>
       <c r="U13" t="n">
-        <v>1465.051953754689</v>
+        <v>1587.485439024175</v>
       </c>
       <c r="V13" t="n">
-        <v>1210.367465548802</v>
+        <v>1332.800950818288</v>
       </c>
       <c r="W13" t="n">
-        <v>920.9502955118412</v>
+        <v>1043.383780781327</v>
       </c>
       <c r="X13" t="n">
-        <v>692.9607446138239</v>
+        <v>815.3942298833101</v>
       </c>
       <c r="Y13" t="n">
-        <v>692.9607446138239</v>
+        <v>815.3942298833101</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1249.484475624661</v>
+        <v>1624.575909889244</v>
       </c>
       <c r="C14" t="n">
-        <v>880.5219586842497</v>
+        <v>1624.575909889244</v>
       </c>
       <c r="D14" t="n">
-        <v>880.5219586842497</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="E14" t="n">
         <v>880.5219586842497</v>
@@ -5278,22 +5278,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>199.5143021373487</v>
+        <v>199.5143021373488</v>
       </c>
       <c r="K14" t="n">
-        <v>468.4264940665502</v>
+        <v>468.4264940665503</v>
       </c>
       <c r="L14" t="n">
         <v>838.9376088552594</v>
       </c>
       <c r="M14" t="n">
-        <v>1282.872051350723</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N14" t="n">
         <v>1738.603625623768</v>
       </c>
       <c r="O14" t="n">
-        <v>2155.602766936376</v>
+        <v>2155.602766936375</v>
       </c>
       <c r="P14" t="n">
         <v>2477.000885571628</v>
@@ -5308,22 +5308,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2610.858661487871</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2357.286535008166</v>
+        <v>2443.576964538517</v>
       </c>
       <c r="V14" t="n">
-        <v>2026.223647664595</v>
+        <v>2112.514077194946</v>
       </c>
       <c r="W14" t="n">
-        <v>2026.223647664595</v>
+        <v>2112.514077194946</v>
       </c>
       <c r="X14" t="n">
-        <v>2026.223647664595</v>
+        <v>2112.514077194946</v>
       </c>
       <c r="Y14" t="n">
-        <v>1636.084315688783</v>
+        <v>1722.374745219134</v>
       </c>
     </row>
     <row r="15">
@@ -5345,13 +5345,13 @@
         <v>448.681311148379</v>
       </c>
       <c r="F15" t="n">
-        <v>302.146753175264</v>
+        <v>302.1467531752639</v>
       </c>
       <c r="G15" t="n">
         <v>165.5050957234327</v>
       </c>
       <c r="H15" t="n">
-        <v>72.31292442990731</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5360,22 +5360,22 @@
         <v>121.8264159807866</v>
       </c>
       <c r="K15" t="n">
-        <v>430.5099695256626</v>
+        <v>316.0048420001852</v>
       </c>
       <c r="L15" t="n">
-        <v>737.9293675700344</v>
+        <v>623.4242400445571</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.030173223836</v>
+        <v>1001.525045698358</v>
       </c>
       <c r="N15" t="n">
-        <v>1518.54682704498</v>
+        <v>1404.041699519502</v>
       </c>
       <c r="O15" t="n">
-        <v>1864.551132081293</v>
+        <v>1750.046004555816</v>
       </c>
       <c r="P15" t="n">
-        <v>2438.195165861565</v>
+        <v>2323.690038336088</v>
       </c>
       <c r="Q15" t="n">
         <v>2560.986726597623</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>666.7990320082214</v>
+        <v>693.4882044534834</v>
       </c>
       <c r="C16" t="n">
-        <v>666.7990320082214</v>
+        <v>524.5520215255765</v>
       </c>
       <c r="D16" t="n">
-        <v>516.6823925958856</v>
+        <v>374.4353821132407</v>
       </c>
       <c r="E16" t="n">
-        <v>368.7692990134926</v>
+        <v>226.5222885308476</v>
       </c>
       <c r="F16" t="n">
-        <v>221.8793515155822</v>
+        <v>79.63234103293726</v>
       </c>
       <c r="G16" t="n">
         <v>53.94298182036445</v>
@@ -5436,10 +5436,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>82.88339090485941</v>
+        <v>82.88339090485943</v>
       </c>
       <c r="K16" t="n">
-        <v>260.2782098866545</v>
+        <v>260.2782098866546</v>
       </c>
       <c r="L16" t="n">
         <v>542.8089378877605</v>
@@ -5463,25 +5463,25 @@
         <v>1587.485439024175</v>
       </c>
       <c r="S16" t="n">
-        <v>1587.485439024175</v>
+        <v>1391.729710350377</v>
       </c>
       <c r="T16" t="n">
-        <v>1364.721000476698</v>
+        <v>1168.9652718029</v>
       </c>
       <c r="U16" t="n">
-        <v>1364.721000476698</v>
+        <v>1168.9652718029</v>
       </c>
       <c r="V16" t="n">
-        <v>1364.721000476698</v>
+        <v>914.2807835970135</v>
       </c>
       <c r="W16" t="n">
-        <v>1297.229626880008</v>
+        <v>914.2807835970135</v>
       </c>
       <c r="X16" t="n">
-        <v>1069.240075981991</v>
+        <v>914.2807835970135</v>
       </c>
       <c r="Y16" t="n">
-        <v>848.4474968384611</v>
+        <v>693.4882044534834</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>469.5360538946422</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>199.5143021373488</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>468.4264940665503</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>838.9376088552596</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>1738.603625623769</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>2155.602766936377</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>2477.000885571629</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>2670.184741116961</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>2488.892320950823</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>2235.320194471117</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>2026.375809607696</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>2026.375809607696</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>1652.910051346616</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>1652.910051346616</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>246.6565409677914</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>509.8374395364948</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>817.2568375808667</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1195.357643234668</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1597.874297055812</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>1943.878602092125</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2202.24449491886</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2533.012570513408</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>877.1197344942216</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C19" t="n">
-        <v>708.1835515663147</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D19" t="n">
-        <v>558.0669121539789</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>82.88339090485944</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>260.2782098866546</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>542.8089378877605</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>851.0870999282812</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1519.562699380753</v>
       </c>
       <c r="T19" t="n">
-        <v>1866.513008862232</v>
+        <v>1296.798260833277</v>
       </c>
       <c r="U19" t="n">
-        <v>1577.410141987875</v>
+        <v>1007.682655791469</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.329483674712</v>
+        <v>752.9981675855821</v>
       </c>
       <c r="W19" t="n">
-        <v>1097.912313637752</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X19" t="n">
-        <v>1097.912313637752</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y19" t="n">
-        <v>877.1197344942216</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>1213.590005099637</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>1213.590005099637</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>855.3243064928864</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>469.5360538946422</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>469.5360538946422</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>468.4264940665502</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>838.9376088552597</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>1738.603625623769</v>
       </c>
       <c r="O20" t="n">
-        <v>3517.878731871643</v>
+        <v>2155.602766936377</v>
       </c>
       <c r="P20" t="n">
-        <v>4231.233819318589</v>
+        <v>2477.000885571629</v>
       </c>
       <c r="Q20" t="n">
-        <v>4689.712021827577</v>
+        <v>2670.184741116961</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>2488.892320950823</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>2235.320194471117</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>1904.257307127546</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>1551.488651857432</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>1551.488651857432</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>1551.488651857432</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>121.8264159807867</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>577.825426642638</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>885.2448246870099</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1263.345630340811</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1665.862284161955</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2011.866589198268</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2438.195165861565</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>877.1197344942216</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C22" t="n">
-        <v>708.1835515663147</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D22" t="n">
-        <v>558.0669121539789</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>82.88339090485944</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>260.2782098866546</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>542.8089378877605</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>851.0870999282812</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1492.060663628368</v>
       </c>
       <c r="T22" t="n">
-        <v>1866.513008862232</v>
+        <v>1269.296225080891</v>
       </c>
       <c r="U22" t="n">
-        <v>1577.410141987875</v>
+        <v>980.1806200390836</v>
       </c>
       <c r="V22" t="n">
-        <v>1322.725653781988</v>
+        <v>725.4961318331967</v>
       </c>
       <c r="W22" t="n">
-        <v>1033.308483745028</v>
+        <v>436.0789617962361</v>
       </c>
       <c r="X22" t="n">
-        <v>1033.308483745028</v>
+        <v>208.0894108982188</v>
       </c>
       <c r="Y22" t="n">
-        <v>1033.308483745028</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="23">
@@ -5980,13 +5980,13 @@
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -6004,22 +6004,22 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>729.2066409118285</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>560.2704579839216</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1783.203745172563</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1494.100878298206</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1239.416390092319</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>949.9992200553586</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>949.9992200553586</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>729.2066409118285</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6205,22 +6205,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6229,43 +6229,43 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O26" t="n">
-        <v>3517.878731871643</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P26" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6299,28 +6299,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902952</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>452.5901955154781</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C28" t="n">
-        <v>452.5901955154781</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3640755286979</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>344.7952525333195</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6414,22 +6414,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570255</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X28" t="n">
-        <v>673.3827746590082</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y28" t="n">
-        <v>452.5901955154781</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3163.468180669545</v>
       </c>
       <c r="O29" t="n">
-        <v>3944.053400686433</v>
+        <v>3666.440651548882</v>
       </c>
       <c r="P29" t="n">
-        <v>4338.827767043611</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6493,10 +6493,10 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,16 +6572,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>556.371005353728</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C31" t="n">
-        <v>556.371005353728</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D31" t="n">
-        <v>556.371005353728</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>556.371005353728</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1220.870226851287</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W31" t="n">
-        <v>931.4530568143261</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X31" t="n">
-        <v>703.4635059163088</v>
+        <v>874.540472347267</v>
       </c>
       <c r="Y31" t="n">
-        <v>556.371005353728</v>
+        <v>874.540472347267</v>
       </c>
     </row>
     <row r="32">
@@ -6682,16 +6682,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6700,25 +6700,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>351.301436796792</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6791,28 +6791,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>561.5038042865474</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C34" t="n">
-        <v>392.5676213586405</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="D34" t="n">
-        <v>242.4509819463048</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1644.746393431758</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1355.643526557401</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.558990051765</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>971.1418200148045</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X34" t="n">
-        <v>743.1522691167871</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y34" t="n">
-        <v>743.1522691167871</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="35">
@@ -6928,37 +6928,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,7 +7046,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7055,7 +7055,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>392.5676213586405</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="C37" t="n">
-        <v>392.5676213586405</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D37" t="n">
-        <v>242.4509819463048</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7098,16 +7098,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
         <v>1646.12566951853</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931531</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.7880996267</v>
+        <v>1690.624311825643</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208131</v>
+        <v>1435.939823619756</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838525</v>
+        <v>1435.939823619756</v>
       </c>
       <c r="X37" t="n">
-        <v>709.6864413838525</v>
+        <v>1207.950272721739</v>
       </c>
       <c r="Y37" t="n">
-        <v>574.2160861888802</v>
+        <v>987.1576935782091</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,10 +7159,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7177,25 +7177,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>786.6724891157196</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7204,22 +7204,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>877.1197344942216</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C40" t="n">
-        <v>708.1835515663147</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D40" t="n">
-        <v>558.0669121539789</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E40" t="n">
-        <v>410.1538185715858</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7377,7 +7377,7 @@
         <v>1123.1389409875</v>
       </c>
       <c r="Y40" t="n">
-        <v>1058.768199324461</v>
+        <v>1123.1389409875</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7438,19 +7438,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,16 +7520,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>709.4168978689405</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="C43" t="n">
-        <v>540.4807149410336</v>
+        <v>732.4361426291186</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>582.3195032167829</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>582.3195032167829</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>435.4295557188725</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.65758193153</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U43" t="n">
-        <v>1475.554715057174</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V43" t="n">
-        <v>1475.554715057174</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W43" t="n">
-        <v>1339.847492740728</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X43" t="n">
-        <v>1111.85794184271</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y43" t="n">
-        <v>891.0653626991802</v>
+        <v>901.3723255570255</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7657,19 +7657,19 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2016.310259422546</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2877.428556330836</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.393206660291</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7681,13 +7681,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E45" t="n">
         <v>487.9678785494859</v>
@@ -7718,7 +7718,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>877.1197344942216</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="C46" t="n">
         <v>708.1835515663147</v>
@@ -7836,22 +7836,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1475.554715057174</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1475.554715057174</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>1475.554715057174</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>1247.565164159156</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y46" t="n">
-        <v>1058.768199324461</v>
+        <v>709.6864413838521</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>-9.805489753489383e-13</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>109.3365388770896</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>324.7879747380777</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>169.6592766025881</v>
       </c>
       <c r="R12" t="n">
-        <v>17.26494649393209</v>
+        <v>17.26494649393206</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>115.6617449752297</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>115.6617449752297</v>
       </c>
       <c r="R15" t="n">
         <v>17.26494649393206</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9175,19 +9175,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>344.7025836476837</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>69.69946722152008</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>29.61882225792094</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>169.6592766025881</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>17.26494649393206</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>67.53663776704263</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,28 +9877,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10129,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.6385654278964</v>
       </c>
       <c r="Q29" t="n">
-        <v>67.53663776704306</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476831</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,28 +10825,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>1.01747575565679</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11305,22 +11305,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>317.5146261106144</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22549,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22558,13 +22558,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>234.2628112589829</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22594,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22606,13 +22606,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>118.5306749682309</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22725,10 +22725,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,22 +22749,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168096</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>82.69405053867266</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22843,13 +22843,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>18.79871472947207</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22965,7 +22965,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,22 +22989,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>230.0272302283864</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23029,13 +23029,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>163.7772586438072</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23074,19 +23074,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>272.0837355325402</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>72.60755131498729</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>48.31847529534909</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>121.0929195699001</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.4371413535349</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8862654257798</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.44749355031652</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.1742023667267</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>48.90093009807168</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.306226784540797</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2570059982656</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.8105729959039</v>
+        <v>54.9251177106308</v>
       </c>
       <c r="I13" t="n">
         <v>103.3051669679944</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.32764374521086</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>193.7981713870603</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U13" t="n">
         <v>286.2244489913895</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>285.9129946868898</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>299.8862654257798</v>
       </c>
       <c r="I14" t="n">
-        <v>61.44749355031655</v>
+        <v>61.44749355031652</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>120.9327970537822</v>
       </c>
       <c r="T14" t="n">
-        <v>120.7466771316792</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>140.8245403778185</v>
       </c>
       <c r="H16" t="n">
         <v>146.8105729959039</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>286.2244489913895</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>219.7065384758679</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>61.44749355031652</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>120.8973174553479</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>27.22701539486147</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>63.95779159379666</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>48.21418137326361</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>61.44749355031652</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25.20511842363933</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>65.97968856501905</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>137.0727782233969</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>87.01161423129997</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>64.70498037788362</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24654,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>16.35964144839403</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>72.96307779513984</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>104.4219494721159</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>158.003952183248</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>242.6988247455124</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>84.46900170907224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>177.3804010777507</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.8576191056865</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>70.66340752541379</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>152.1728482433093</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>165.7589601792658</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.67565816574651</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>776028.9822512048</v>
+        <v>776028.9822512049</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>776028.9822512048</v>
+        <v>776028.9822512049</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>786989.6598734538</v>
+        <v>786989.6598734536</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1013531.16128487</v>
+        <v>786989.6598734539</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1013531.16128487</v>
+        <v>786989.659873454</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>289152.6100157573</v>
+      </c>
+      <c r="C2" t="n">
         <v>289152.6100157574</v>
-      </c>
-      <c r="C2" t="n">
-        <v>289152.6100157577</v>
       </c>
       <c r="D2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="E2" t="n">
+        <v>312157.9037460883</v>
+      </c>
+      <c r="F2" t="n">
+        <v>312157.9037460884</v>
+      </c>
+      <c r="G2" t="n">
         <v>312157.9037460885</v>
       </c>
-      <c r="F2" t="n">
-        <v>312157.9037460885</v>
-      </c>
-      <c r="G2" t="n">
-        <v>397081.7868869832</v>
-      </c>
       <c r="H2" t="n">
-        <v>397081.786886983</v>
+        <v>312157.9037460884</v>
       </c>
       <c r="I2" t="n">
         <v>397081.786886983</v>
       </c>
       <c r="J2" t="n">
+        <v>397081.7868869832</v>
+      </c>
+      <c r="K2" t="n">
         <v>397081.786886983</v>
-      </c>
-      <c r="K2" t="n">
-        <v>397081.7868869831</v>
       </c>
       <c r="L2" t="n">
         <v>397081.7868869831</v>
       </c>
       <c r="M2" t="n">
-        <v>397081.7868869832</v>
+        <v>397081.786886983</v>
       </c>
       <c r="N2" t="n">
+        <v>397081.786886983</v>
+      </c>
+      <c r="O2" t="n">
+        <v>397081.786886983</v>
+      </c>
+      <c r="P2" t="n">
         <v>397081.7868869831</v>
-      </c>
-      <c r="O2" t="n">
-        <v>397081.7868869831</v>
-      </c>
-      <c r="P2" t="n">
-        <v>397081.786886983</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>469045.4557502363</v>
+        <v>469045.4557502365</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>242267.3897762175</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>234848.6170503588</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.599055394763127e-10</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>125192.8247873505</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>53660.56571087037</v>
       </c>
       <c r="E4" t="n">
-        <v>7134.159330842215</v>
+        <v>7134.159330842198</v>
       </c>
       <c r="F4" t="n">
         <v>7134.159330842213</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709187</v>
+        <v>7134.159330842211</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709187</v>
+        <v>7134.159330842211</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
@@ -26444,16 +26444,16 @@
         <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709188</v>
@@ -26484,13 +26484,13 @@
         <v>61958.82776879413</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>61958.82776879414</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>61958.82776879414</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-443403.326718886</v>
+        <v>-437941.7543476488</v>
       </c>
       <c r="C6" t="n">
-        <v>146564.5524956586</v>
+        <v>152026.1248668957</v>
       </c>
       <c r="D6" t="n">
-        <v>146564.5524956585</v>
+        <v>152026.1248668958</v>
       </c>
       <c r="E6" t="n">
-        <v>-230898.6881630868</v>
+        <v>-226472.3540097148</v>
       </c>
       <c r="F6" t="n">
-        <v>238146.7675871495</v>
+        <v>242573.1017405218</v>
       </c>
       <c r="G6" t="n">
-        <v>36139.31595770224</v>
+        <v>242573.1017405219</v>
       </c>
       <c r="H6" t="n">
-        <v>278406.7057339195</v>
+        <v>242573.1017405218</v>
       </c>
       <c r="I6" t="n">
-        <v>278406.7057339195</v>
+        <v>44162.84809559288</v>
       </c>
       <c r="J6" t="n">
-        <v>101983.4865413266</v>
+        <v>102588.2459533589</v>
       </c>
       <c r="K6" t="n">
-        <v>278406.7057339196</v>
+        <v>279011.4651459516</v>
       </c>
       <c r="L6" t="n">
-        <v>278406.7057339196</v>
+        <v>279011.4651459517</v>
       </c>
       <c r="M6" t="n">
-        <v>278406.7057339195</v>
+        <v>279011.4651459516</v>
       </c>
       <c r="N6" t="n">
-        <v>278406.7057339197</v>
+        <v>279011.4651459517</v>
       </c>
       <c r="O6" t="n">
-        <v>153213.8809465691</v>
+        <v>279011.4651459516</v>
       </c>
       <c r="P6" t="n">
-        <v>278406.7057339195</v>
+        <v>279011.4651459517</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>961.5670451980343</v>
+        <v>961.5670451980345</v>
       </c>
       <c r="F3" t="n">
-        <v>961.5670451980344</v>
+        <v>961.5670451980345</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980345</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980345</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26770,7 +26770,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26804,10 +26804,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>1194.51293060493</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="H4" t="n">
-        <v>1194.51293060493</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="I4" t="n">
         <v>1194.51293060493</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>583.8233809809476</v>
+        <v>583.8233809809478</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128.2096553952639</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>128.2096553952638</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>520.2256578503747</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>520.2256578503747</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>520.2256578503747</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.865596161600135</v>
+        <v>3.865596161600136</v>
       </c>
       <c r="H11" t="n">
-        <v>39.58853668998739</v>
+        <v>39.5885366899874</v>
       </c>
       <c r="I11" t="n">
         <v>149.0283960200894</v>
@@ -31764,37 +31764,37 @@
         <v>328.0876422206098</v>
       </c>
       <c r="K11" t="n">
-        <v>491.7183277411436</v>
+        <v>491.7183277411437</v>
       </c>
       <c r="L11" t="n">
-        <v>610.0200662717139</v>
+        <v>610.020066271714</v>
       </c>
       <c r="M11" t="n">
-        <v>678.7648620105701</v>
+        <v>678.7648620105704</v>
       </c>
       <c r="N11" t="n">
-        <v>689.7479871047167</v>
+        <v>689.7479871047168</v>
       </c>
       <c r="O11" t="n">
-        <v>651.3094652728053</v>
+        <v>651.3094652728054</v>
       </c>
       <c r="P11" t="n">
-        <v>555.8775600333018</v>
+        <v>555.877560033302</v>
       </c>
       <c r="Q11" t="n">
-        <v>417.4408974959969</v>
+        <v>417.440897495997</v>
       </c>
       <c r="R11" t="n">
         <v>242.8222548861147</v>
       </c>
       <c r="S11" t="n">
-        <v>88.08727253246316</v>
+        <v>88.08727253246319</v>
       </c>
       <c r="T11" t="n">
         <v>16.9216471974046</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3092476929280107</v>
+        <v>0.3092476929280108</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>19.97519465590634</v>
       </c>
       <c r="I12" t="n">
-        <v>71.21038966796765</v>
+        <v>71.21038966796766</v>
       </c>
       <c r="J12" t="n">
-        <v>195.4067520812345</v>
+        <v>195.4067520812346</v>
       </c>
       <c r="K12" t="n">
-        <v>333.9812632363776</v>
+        <v>333.9812632363777</v>
       </c>
       <c r="L12" t="n">
-        <v>449.0790242691386</v>
+        <v>449.0790242691387</v>
       </c>
       <c r="M12" t="n">
-        <v>524.0540396329286</v>
+        <v>524.0540396329287</v>
       </c>
       <c r="N12" t="n">
-        <v>537.9241906905494</v>
+        <v>537.9241906905495</v>
       </c>
       <c r="O12" t="n">
-        <v>492.0955424609223</v>
+        <v>492.0955424609224</v>
       </c>
       <c r="P12" t="n">
         <v>394.9500567342644</v>
@@ -31867,10 +31867,10 @@
         <v>128.4145574700319</v>
       </c>
       <c r="S12" t="n">
-        <v>38.4173248718271</v>
+        <v>38.41732487182711</v>
       </c>
       <c r="T12" t="n">
-        <v>8.336604854122577</v>
+        <v>8.33660485412258</v>
       </c>
       <c r="U12" t="n">
         <v>0.1360708082827408</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.733973360193176</v>
+        <v>1.733973360193177</v>
       </c>
       <c r="H13" t="n">
         <v>15.41659951153571</v>
       </c>
       <c r="I13" t="n">
-        <v>52.1453079592639</v>
+        <v>52.14530795926392</v>
       </c>
       <c r="J13" t="n">
         <v>122.5919165656576</v>
       </c>
       <c r="K13" t="n">
-        <v>201.4561776660799</v>
+        <v>201.45617766608</v>
       </c>
       <c r="L13" t="n">
-        <v>257.7945484781746</v>
+        <v>257.7945484781747</v>
       </c>
       <c r="M13" t="n">
         <v>271.8082059073722</v>
       </c>
       <c r="N13" t="n">
-        <v>265.3452142921069</v>
+        <v>265.345214292107</v>
       </c>
       <c r="O13" t="n">
-        <v>245.0892527662138</v>
+        <v>245.0892527662139</v>
       </c>
       <c r="P13" t="n">
-        <v>209.7161962182728</v>
+        <v>209.7161962182729</v>
       </c>
       <c r="Q13" t="n">
         <v>145.1966238249032</v>
       </c>
       <c r="R13" t="n">
-        <v>77.96574763195862</v>
+        <v>77.96574763195864</v>
       </c>
       <c r="S13" t="n">
-        <v>30.21842664991198</v>
+        <v>30.21842664991199</v>
       </c>
       <c r="T13" t="n">
-        <v>7.408795266279934</v>
+        <v>7.408795266279935</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0945803651014461</v>
+        <v>0.09458036510144611</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32001,37 +32001,37 @@
         <v>328.0876422206098</v>
       </c>
       <c r="K14" t="n">
-        <v>491.7183277411436</v>
+        <v>491.7183277411437</v>
       </c>
       <c r="L14" t="n">
-        <v>610.0200662717139</v>
+        <v>610.020066271714</v>
       </c>
       <c r="M14" t="n">
-        <v>678.7648620105703</v>
+        <v>678.7648620105704</v>
       </c>
       <c r="N14" t="n">
-        <v>689.7479871047167</v>
+        <v>689.7479871047168</v>
       </c>
       <c r="O14" t="n">
         <v>651.3094652728054</v>
       </c>
       <c r="P14" t="n">
-        <v>555.8775600333018</v>
+        <v>555.877560033302</v>
       </c>
       <c r="Q14" t="n">
-        <v>417.4408974959969</v>
+        <v>417.440897495997</v>
       </c>
       <c r="R14" t="n">
         <v>242.8222548861147</v>
       </c>
       <c r="S14" t="n">
-        <v>88.08727253246317</v>
+        <v>88.08727253246319</v>
       </c>
       <c r="T14" t="n">
         <v>16.9216471974046</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3092476929280107</v>
+        <v>0.3092476929280108</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,16 +32074,16 @@
         <v>19.97519465590634</v>
       </c>
       <c r="I15" t="n">
-        <v>71.21038966796765</v>
+        <v>71.21038966796766</v>
       </c>
       <c r="J15" t="n">
-        <v>195.4067520812345</v>
+        <v>195.4067520812346</v>
       </c>
       <c r="K15" t="n">
         <v>333.9812632363777</v>
       </c>
       <c r="L15" t="n">
-        <v>449.0790242691386</v>
+        <v>449.0790242691387</v>
       </c>
       <c r="M15" t="n">
         <v>524.0540396329287</v>
@@ -32107,7 +32107,7 @@
         <v>38.41732487182711</v>
       </c>
       <c r="T15" t="n">
-        <v>8.336604854122578</v>
+        <v>8.33660485412258</v>
       </c>
       <c r="U15" t="n">
         <v>0.1360708082827408</v>
@@ -32153,13 +32153,13 @@
         <v>15.41659951153571</v>
       </c>
       <c r="I16" t="n">
-        <v>52.14530795926391</v>
+        <v>52.14530795926392</v>
       </c>
       <c r="J16" t="n">
         <v>122.5919165656576</v>
       </c>
       <c r="K16" t="n">
-        <v>201.4561776660799</v>
+        <v>201.45617766608</v>
       </c>
       <c r="L16" t="n">
         <v>257.7945484781747</v>
@@ -32168,13 +32168,13 @@
         <v>271.8082059073722</v>
       </c>
       <c r="N16" t="n">
-        <v>265.3452142921069</v>
+        <v>265.345214292107</v>
       </c>
       <c r="O16" t="n">
-        <v>245.0892527662138</v>
+        <v>245.0892527662139</v>
       </c>
       <c r="P16" t="n">
-        <v>209.7161962182728</v>
+        <v>209.7161962182729</v>
       </c>
       <c r="Q16" t="n">
         <v>145.1966238249032</v>
@@ -32189,7 +32189,7 @@
         <v>7.408795266279935</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0945803651014461</v>
+        <v>0.09458036510144611</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>3.865596161600136</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>39.5885366899874</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>491.7183277411437</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>610.020066271714</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>678.7648620105704</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>689.7479871047168</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>651.3094652728054</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>555.877560033302</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>417.440897495997</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>88.08727253246319</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280108</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>71.21038966796766</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>195.4067520812346</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363777</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>449.0790242691387</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>524.0540396329287</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>537.9241906905495</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>492.0955424609224</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>38.41732487182711</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>8.33660485412258</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.733973360193177</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>52.14530795926392</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>201.45617766608</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>257.7945484781747</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>265.345214292107</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>245.0892527662139</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182729</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>77.96574763195864</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>30.21842664991199</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>7.408795266279935</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09458036510144611</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>3.865596161600136</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>39.5885366899874</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>491.7183277411437</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>610.020066271714</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>678.7648620105704</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>689.7479871047168</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>651.3094652728054</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>555.877560033302</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>417.440897495997</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>88.08727253246319</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280108</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>71.21038966796766</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>195.4067520812346</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363777</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>449.0790242691387</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>524.0540396329287</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>537.9241906905495</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>492.0955424609224</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>38.41732487182711</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>8.33660485412258</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.733973360193177</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>52.14530795926392</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>201.45617766608</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>257.7945484781747</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>265.345214292107</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>245.0892527662139</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182729</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>77.96574763195864</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>30.21842664991199</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>7.408795266279935</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09458036510144611</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35193,7 +35193,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0417376939235</v>
+        <v>147.0417376939236</v>
       </c>
       <c r="K11" t="n">
-        <v>271.628476696163</v>
+        <v>271.6284766961631</v>
       </c>
       <c r="L11" t="n">
-        <v>374.2536513017266</v>
+        <v>374.2536513017267</v>
       </c>
       <c r="M11" t="n">
-        <v>448.4186287832974</v>
+        <v>448.4186287832977</v>
       </c>
       <c r="N11" t="n">
-        <v>460.3349235081258</v>
+        <v>460.3349235081259</v>
       </c>
       <c r="O11" t="n">
-        <v>421.2112538511185</v>
+        <v>421.2112538511186</v>
       </c>
       <c r="P11" t="n">
-        <v>324.6445642780323</v>
+        <v>324.6445642780324</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.1352076215474</v>
+        <v>195.1352076215475</v>
       </c>
       <c r="R11" t="n">
-        <v>27.23671707198255</v>
+        <v>27.23671707198163</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>177.9056642916574</v>
+        <v>68.56912541456788</v>
       </c>
       <c r="K12" t="n">
-        <v>196.1398242620186</v>
+        <v>460.6050612745973</v>
       </c>
       <c r="L12" t="n">
         <v>310.5246444892645</v>
       </c>
       <c r="M12" t="n">
-        <v>381.9200057109103</v>
+        <v>381.9200057109104</v>
       </c>
       <c r="N12" t="n">
-        <v>406.5824786072161</v>
+        <v>406.5824786072162</v>
       </c>
       <c r="O12" t="n">
-        <v>674.2872727545556</v>
+        <v>349.499298016478</v>
       </c>
       <c r="P12" t="n">
-        <v>260.9756493199341</v>
+        <v>260.9756493199342</v>
       </c>
       <c r="Q12" t="n">
-        <v>124.0318795313709</v>
+        <v>293.691156133959</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>29.2327364489848</v>
+        <v>29.23273644898482</v>
       </c>
       <c r="K13" t="n">
-        <v>179.186685840197</v>
+        <v>179.1866858401971</v>
       </c>
       <c r="L13" t="n">
-        <v>285.3845737384908</v>
+        <v>285.3845737384909</v>
       </c>
       <c r="M13" t="n">
-        <v>311.3920828692127</v>
+        <v>311.3920828692128</v>
       </c>
       <c r="N13" t="n">
-        <v>309.4773866713355</v>
+        <v>309.4773866713356</v>
       </c>
       <c r="O13" t="n">
         <v>269.6743806802535</v>
       </c>
       <c r="P13" t="n">
-        <v>206.9947554831663</v>
+        <v>206.9947554831664</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.0345805732088</v>
+        <v>59.03458057320883</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0417376939235</v>
+        <v>147.0417376939236</v>
       </c>
       <c r="K14" t="n">
         <v>271.6284766961631</v>
       </c>
       <c r="L14" t="n">
-        <v>374.2536513017266</v>
+        <v>374.2536513017267</v>
       </c>
       <c r="M14" t="n">
-        <v>448.4186287832975</v>
+        <v>448.4186287832977</v>
       </c>
       <c r="N14" t="n">
-        <v>460.3349235081258</v>
+        <v>460.3349235081259</v>
       </c>
       <c r="O14" t="n">
         <v>421.2112538511186</v>
       </c>
       <c r="P14" t="n">
-        <v>324.6445642780323</v>
+        <v>324.6445642780324</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.1352076215474</v>
+        <v>195.1352076215475</v>
       </c>
       <c r="R14" t="n">
-        <v>27.23671707198258</v>
+        <v>27.23671707198261</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>68.56912541456785</v>
+        <v>68.56912541456788</v>
       </c>
       <c r="K15" t="n">
-        <v>311.8015692372484</v>
+        <v>196.1398242620187</v>
       </c>
       <c r="L15" t="n">
         <v>310.5246444892645</v>
@@ -35746,7 +35746,7 @@
         <v>579.4384179598713</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.0318795313709</v>
+        <v>239.6936245066007</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>29.23273644898481</v>
+        <v>29.23273644898482</v>
       </c>
       <c r="K16" t="n">
         <v>179.1866858401971</v>
@@ -35816,16 +35816,16 @@
         <v>311.3920828692128</v>
       </c>
       <c r="N16" t="n">
-        <v>309.4773866713355</v>
+        <v>309.4773866713356</v>
       </c>
       <c r="O16" t="n">
         <v>269.6743806802535</v>
       </c>
       <c r="P16" t="n">
-        <v>206.9947554831663</v>
+        <v>206.9947554831664</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.0345805732088</v>
+        <v>59.03458057320883</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>147.0417376939236</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>271.6284766961631</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>374.2536513017267</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>448.4186287832977</v>
       </c>
       <c r="N17" t="n">
-        <v>897.0044190605952</v>
+        <v>460.3349235081259</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>421.2112538511186</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>324.6445642780324</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>195.1352076215475</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>27.23671707198261</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>265.8392914835388</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>381.9200057109104</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>406.5824786072162</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>349.499298016478</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>260.9756493199342</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>28.25672331738876</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>29.23273644898482</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>179.1866858401971</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384909</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692128</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713356</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831664</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>59.03458057320883</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>147.0417376939236</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>271.6284766961631</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>374.2536513017267</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>448.4186287832977</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>460.3349235081259</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>421.2112538511186</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>324.6445642780324</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>195.1352076215475</v>
       </c>
       <c r="R20" t="n">
-        <v>89.23202080014572</v>
+        <v>27.23671707198261</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>68.56912541456788</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>460.6050612745973</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>381.9200057109104</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>406.5824786072162</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>349.499298016478</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>430.6349259225223</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>124.0318795313709</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>29.23273644898482</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>179.1866858401971</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384909</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692128</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713356</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831664</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>59.03458057320883</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>575.5896386552618</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36381,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>502.5482327048862</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36840,7 +36840,7 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
@@ -36849,10 +36849,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>534.4005516472682</v>
       </c>
       <c r="Q29" t="n">
-        <v>318.3309425707625</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>258.3236387357551</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923323</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359025</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>338.2087623110573</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -38025,22 +38025,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>869.8164615235258</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
